--- a/Documentos/Buck.xlsx
+++ b/Documentos/Buck.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef58da02b93602f7/ITESM/GrupoInvestigacion/Converters/Documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tec de Monterrey\Power Electronics Gerardo Escobar\Simple Boost Converter\Simple_Boost_Converter\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="799" documentId="11_F4FDDCD2CDE8D03A7F0AB384521CA8AB9A5333FD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E98F1BCD-6D15-4D8B-98BC-27EBD390574A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD96534-9A1B-4C53-85B3-2129EC75D6E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Buck" sheetId="4" r:id="rId1"/>
@@ -375,7 +375,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -392,7 +392,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -694,7 +694,7 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="55.33203125" customWidth="1"/>
     <col min="4" max="4" width="14.44140625" customWidth="1"/>

--- a/Documentos/Buck.xlsx
+++ b/Documentos/Buck.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef58da02b93602f7/ITESM/GrupoInvestigacion/Converters/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="799" documentId="11_F4FDDCD2CDE8D03A7F0AB384521CA8AB9A5333FD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E98F1BCD-6D15-4D8B-98BC-27EBD390574A}"/>
+  <xr:revisionPtr revIDLastSave="847" documentId="11_F4FDDCD2CDE8D03A7F0AB384521CA8AB9A5333FD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64D2F7A3-80B8-49FC-9A8D-63500456D1D4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="84">
   <si>
     <t>DPU01M-12</t>
   </si>
@@ -191,12 +191,6 @@
     <t>https://mexico.newark.com/multicomp-pro/mcap115018047a-221mu/inductor-220uh-20/dp/74R9844?st=inductor</t>
   </si>
   <si>
-    <t>https://www.mouser.mx/ProductDetail/Bel-Signal-Transformer/HCTI-330-5.2?qs=gt1LBUVyoHkxpRWD%252B2tBfg%3D%3D</t>
-  </si>
-  <si>
-    <t>HCTI-330-5.2</t>
-  </si>
-  <si>
     <t>MUR3060WT</t>
   </si>
   <si>
@@ -233,9 +227,6 @@
     <t>INB OUTB</t>
   </si>
   <si>
-    <t>L3</t>
-  </si>
-  <si>
     <t>C2</t>
   </si>
   <si>
@@ -266,9 +257,6 @@
     <t>ECW-FD2W684JC</t>
   </si>
   <si>
-    <t>https://mexico.newark.com/panasonic/ecw-fd2w684jc/cap-film-pp-0-68uf-450v-radial/dp/82AH0815?st=0.68uf%20450v%20pel%C3%ADcula</t>
-  </si>
-  <si>
     <t>MCKSK100M2R2D11S</t>
   </si>
   <si>
@@ -279,6 +267,27 @@
   </si>
   <si>
     <t>https://mexico.newark.com/kemet/r60en42205030k/cap-2-2-f-100v-10-pet-radial/dp/58Y5253</t>
+  </si>
+  <si>
+    <t>1N4937G</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>https://mexico.newark.com/onsemi/1n4937g/fast-recovery-diode-1a-600v-axial/dp/42K2841?st=1n4937</t>
+  </si>
+  <si>
+    <t>L7805CD2T-TR</t>
+  </si>
+  <si>
+    <t>Regulador</t>
+  </si>
+  <si>
+    <t>https://mexico.newark.com/stmicroelectronics/l7805cd2t-tr/linear-voltage-regulator/dp/95M4314?st=l7805</t>
+  </si>
+  <si>
+    <t>https://mexico.newark.com/panasonic/ecw-fd2w684jc/cap-film-pp-0-68uf-450v-radial/dp/82AH0815?st=0.68uf%20450v%20pel%C3%Adcula</t>
   </si>
 </sst>
 </file>
@@ -688,716 +697,851 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A196790E-2C96-43EB-B4BF-5CCD571C6100}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="55.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1"/>
-    <col min="7" max="7" width="153.77734375" customWidth="1"/>
+    <col min="4" max="4" width="55.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" customWidth="1"/>
+    <col min="8" max="8" width="153.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>58</v>
+      <c r="B4" s="1">
+        <f>A4*5+1</f>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>2.85</v>
       </c>
-      <c r="F4" s="1">
-        <f t="shared" ref="F4:F23" si="0">E4*A4</f>
-        <v>2.85</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G4" s="1">
+        <f>F4*B4</f>
+        <v>17.100000000000001</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="1">
+        <f t="shared" ref="B5:B25" si="0">A5*5+1</f>
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" ref="G5:G25" si="1">F5*B5</f>
+        <v>9.8450000000000006</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.159</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="1"/>
+        <v>3.8340000000000001</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9260000000000002</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3.1E-2</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="1"/>
+        <v>0.186</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="1"/>
+        <v>13.559999999999999</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="1">
-        <v>4.34</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" ref="F5:F12" si="1">E5*A5</f>
-        <v>8.68</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.159</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" si="1"/>
-        <v>0.159</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.63900000000000001</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="1"/>
-        <v>0.63900000000000001</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.89100000000000001</v>
-      </c>
-      <c r="F8" s="1">
-        <f>E8*A8</f>
-        <v>0.89100000000000001</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="1">
-        <v>3.1E-2</v>
-      </c>
-      <c r="F9" s="1">
-        <f t="shared" si="1"/>
-        <v>3.1E-2</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="1">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="F10" s="1">
-        <f>E10*A10</f>
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>9.0299999999999994</v>
       </c>
-      <c r="F11" s="1">
-        <f t="shared" si="1"/>
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="1">
+        <f t="shared" si="1"/>
+        <v>54.179999999999993</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>1.51</v>
       </c>
-      <c r="F12" s="1">
-        <f t="shared" si="1"/>
-        <v>13.59</v>
-      </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="1">
+        <f t="shared" si="1"/>
+        <v>69.459999999999994</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>71</v>
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>8.1300000000000008</v>
       </c>
-      <c r="F13" s="1">
-        <f>E13*A13</f>
-        <v>8.1300000000000008</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G13" s="1">
+        <f t="shared" si="1"/>
+        <v>48.78</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="1"/>
+        <v>2.3340000000000001</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="1"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1640000000000001</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>11</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>1</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="F16" s="1">
-        <f t="shared" si="0"/>
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>8</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F18" s="1">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="F17" s="1">
-        <f t="shared" si="0"/>
-        <v>0.42399999999999999</v>
-      </c>
-      <c r="G17" s="6" t="s">
+      <c r="G18" s="1">
+        <f t="shared" si="1"/>
+        <v>2.968</v>
+      </c>
+      <c r="H18" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>1</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="2" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F19" s="1">
         <v>21.33</v>
       </c>
-      <c r="F18" s="1">
-        <f t="shared" si="0"/>
-        <v>21.33</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>1</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
+      <c r="G19" s="1">
+        <f t="shared" si="1"/>
+        <v>127.97999999999999</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F20" s="1">
         <v>0.191</v>
       </c>
-      <c r="F19" s="1">
-        <f t="shared" si="0"/>
+      <c r="G20" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1459999999999999</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="1">
         <v>0.191</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>1</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0.191</v>
-      </c>
-      <c r="F20" s="1">
-        <f t="shared" si="0"/>
-        <v>0.191</v>
-      </c>
-      <c r="G20" s="6" t="s">
+      <c r="G21" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1459999999999999</v>
+      </c>
+      <c r="H21" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>2</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="2" t="s">
+      <c r="B22" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F22" s="1">
         <v>0.57099999999999995</v>
       </c>
-      <c r="F21" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1419999999999999</v>
-      </c>
-      <c r="G21" s="6" t="s">
+      <c r="G22" s="1">
+        <f t="shared" si="1"/>
+        <v>6.2809999999999997</v>
+      </c>
+      <c r="H22" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>1</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="1">
+      <c r="F23" s="1">
         <v>7.48</v>
       </c>
-      <c r="F22" s="1">
-        <f t="shared" si="0"/>
-        <v>7.48</v>
-      </c>
-      <c r="G22" s="6" t="s">
+      <c r="G23" s="1">
+        <f t="shared" si="1"/>
+        <v>44.88</v>
+      </c>
+      <c r="H23" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="1"/>
+        <v>3.4320000000000004</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>2</v>
+      </c>
+      <c r="B25" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1.26</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="1"/>
+        <v>13.86</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="10"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0.127</v>
-      </c>
-      <c r="F23" s="1">
-        <f t="shared" si="0"/>
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="10"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="7" t="s">
+      <c r="E29" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="F29" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="G29" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G27" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>1</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="1">
-        <v>4.2</v>
-      </c>
-      <c r="F29" s="1">
-        <f>E29*A29</f>
-        <v>4.2</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G30" s="1"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="6"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G31" s="1"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1</v>
       </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1" t="s">
+      <c r="B32" s="1">
+        <f>A32*5+1</f>
+        <v>6</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="E32" s="1">
-        <v>0.39900000000000002</v>
       </c>
       <c r="F32" s="1">
         <v>0.50700000000000001</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G32" s="1">
+        <f>F32*B32</f>
+        <v>3.0419999999999998</v>
+      </c>
+      <c r="H32" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>1</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1" t="s">
+      <c r="B33" s="1">
+        <f t="shared" ref="B33:B35" si="2">A33*5+1</f>
+        <v>6</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E33" s="1">
+      <c r="F33" s="1">
         <v>3.77</v>
       </c>
-      <c r="F33" s="1">
-        <f>E33*A33</f>
-        <v>3.77</v>
-      </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" s="1">
+        <f>F33*B33</f>
+        <v>22.62</v>
+      </c>
+      <c r="H33" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1</v>
       </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1" t="s">
+      <c r="B34" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E34" s="1">
+      <c r="F34" s="1">
         <v>4.54</v>
       </c>
-      <c r="F34" s="1">
-        <f>E34*A34</f>
-        <v>4.54</v>
-      </c>
-      <c r="G34" s="6" t="s">
+      <c r="G34" s="1">
+        <f t="shared" ref="G34:G35" si="3">F34*B34</f>
+        <v>27.240000000000002</v>
+      </c>
+      <c r="H34" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>4</v>
       </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="2" t="s">
+      <c r="B35" s="1">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E35" s="1">
-        <v>0.45500000000000002</v>
-      </c>
       <c r="F35" s="1">
-        <f>E35*A35</f>
-        <v>1.82</v>
-      </c>
-      <c r="G35" s="6" t="s">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="3"/>
+        <v>4.3469999999999995</v>
+      </c>
+      <c r="H35" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="6"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G36" s="1"/>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B38" s="1"/>
-      <c r="F38" s="1">
-        <f>SUM(F4:F36)</f>
-        <v>92.43</v>
-      </c>
-      <c r="G38" s="5"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G39" s="5"/>
+      <c r="C38" s="1"/>
+      <c r="G38" s="1">
+        <f>SUM(G4:G36)</f>
+        <v>482.26499999999999</v>
+      </c>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H39" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G4" r:id="rId1" xr:uid="{AEB8A09F-C0E3-45D3-A16E-0140F86390B5}"/>
-    <hyperlink ref="G12" r:id="rId2" xr:uid="{D6FEE78D-44FF-4ACB-9ED4-41108DADDCD9}"/>
-    <hyperlink ref="G33" r:id="rId3" xr:uid="{01B4B744-3518-4E82-969C-0DE121A38B11}"/>
-    <hyperlink ref="G34" r:id="rId4" xr:uid="{1C0F9A73-D70E-430E-9BC4-EDDC9F11C54F}"/>
-    <hyperlink ref="G22" r:id="rId5" xr:uid="{F3FC81E7-C74E-4C68-8914-9A07504F1401}"/>
-    <hyperlink ref="G21" r:id="rId6" xr:uid="{9025B622-9684-46DD-833E-99005C9712D5}"/>
-    <hyperlink ref="G32" r:id="rId7" xr:uid="{E4457014-6968-4D18-8FB0-1F6D7026192A}"/>
-    <hyperlink ref="G23" r:id="rId8" xr:uid="{94E4A07D-2E0A-4FD4-BBFA-77C8C56C7C78}"/>
-    <hyperlink ref="G35" r:id="rId9" xr:uid="{4279A7C1-12E7-44C8-9E8F-3D31E6B4511D}"/>
-    <hyperlink ref="G17" r:id="rId10" xr:uid="{651AC2DC-90C4-4D47-AE08-796315A7ACD4}"/>
-    <hyperlink ref="G19" r:id="rId11" xr:uid="{47CB8D1B-4AA6-416B-B5E0-08C38A0E1365}"/>
-    <hyperlink ref="G20" r:id="rId12" xr:uid="{F37B3F7F-C910-4117-8227-72F6BA38E545}"/>
-    <hyperlink ref="G6" r:id="rId13" xr:uid="{F5C6C226-998D-4F83-B7D1-3282C6582B83}"/>
-    <hyperlink ref="G11" r:id="rId14" xr:uid="{63919B87-5CBB-461C-989D-313C35090047}"/>
-    <hyperlink ref="G16" r:id="rId15" xr:uid="{28F72A6A-80C5-4503-B979-6F6DE05CBEE3}"/>
-    <hyperlink ref="G5" r:id="rId16" xr:uid="{2BC7A849-DDB8-4F29-8268-F9BA7AE20465}"/>
-    <hyperlink ref="G29" r:id="rId17" xr:uid="{B6F54C02-C15A-457E-8F16-D45CC922CF28}"/>
-    <hyperlink ref="G18" r:id="rId18" xr:uid="{35D5887A-5BC8-4A88-8325-BB373091E46D}"/>
-    <hyperlink ref="G13" r:id="rId19" xr:uid="{052DF8B8-74F6-404C-96D3-336D2BC6DF8B}"/>
-    <hyperlink ref="G7" r:id="rId20" xr:uid="{16272E7E-6B59-4480-9692-285FDD105878}"/>
+    <hyperlink ref="H4" r:id="rId1" xr:uid="{AEB8A09F-C0E3-45D3-A16E-0140F86390B5}"/>
+    <hyperlink ref="H12" r:id="rId2" xr:uid="{D6FEE78D-44FF-4ACB-9ED4-41108DADDCD9}"/>
+    <hyperlink ref="H33" r:id="rId3" xr:uid="{01B4B744-3518-4E82-969C-0DE121A38B11}"/>
+    <hyperlink ref="H34" r:id="rId4" xr:uid="{1C0F9A73-D70E-430E-9BC4-EDDC9F11C54F}"/>
+    <hyperlink ref="H23" r:id="rId5" xr:uid="{F3FC81E7-C74E-4C68-8914-9A07504F1401}"/>
+    <hyperlink ref="H22" r:id="rId6" xr:uid="{9025B622-9684-46DD-833E-99005C9712D5}"/>
+    <hyperlink ref="H32" r:id="rId7" xr:uid="{E4457014-6968-4D18-8FB0-1F6D7026192A}"/>
+    <hyperlink ref="H24" r:id="rId8" xr:uid="{94E4A07D-2E0A-4FD4-BBFA-77C8C56C7C78}"/>
+    <hyperlink ref="H35" r:id="rId9" xr:uid="{4279A7C1-12E7-44C8-9E8F-3D31E6B4511D}"/>
+    <hyperlink ref="H18" r:id="rId10" xr:uid="{651AC2DC-90C4-4D47-AE08-796315A7ACD4}"/>
+    <hyperlink ref="H20" r:id="rId11" xr:uid="{47CB8D1B-4AA6-416B-B5E0-08C38A0E1365}"/>
+    <hyperlink ref="H21" r:id="rId12" xr:uid="{F37B3F7F-C910-4117-8227-72F6BA38E545}"/>
+    <hyperlink ref="H6" r:id="rId13" xr:uid="{F5C6C226-998D-4F83-B7D1-3282C6582B83}"/>
+    <hyperlink ref="H11" r:id="rId14" xr:uid="{63919B87-5CBB-461C-989D-313C35090047}"/>
+    <hyperlink ref="H17" r:id="rId15" xr:uid="{28F72A6A-80C5-4503-B979-6F6DE05CBEE3}"/>
+    <hyperlink ref="H5" r:id="rId16" xr:uid="{2BC7A849-DDB8-4F29-8268-F9BA7AE20465}"/>
+    <hyperlink ref="H19" r:id="rId17" xr:uid="{35D5887A-5BC8-4A88-8325-BB373091E46D}"/>
+    <hyperlink ref="H13" r:id="rId18" xr:uid="{052DF8B8-74F6-404C-96D3-336D2BC6DF8B}"/>
+    <hyperlink ref="H7" r:id="rId19" xr:uid="{16272E7E-6B59-4480-9692-285FDD105878}"/>
+    <hyperlink ref="H14" r:id="rId20" xr:uid="{63BF697A-9584-44A4-8EFD-46DED4CBA971}"/>
+    <hyperlink ref="H10" r:id="rId21" xr:uid="{92A90333-6E55-4C7A-8DAF-3B8899A8EC45}"/>
+    <hyperlink ref="H9" r:id="rId22" xr:uid="{C2CFFC5E-57AB-4DC0-9F47-ED3CC61190CF}"/>
+    <hyperlink ref="H8" r:id="rId23" xr:uid="{65D8EAF5-E3AD-4F93-9D8F-4F90A7C26FA8}"/>
+    <hyperlink ref="H25" r:id="rId24" xr:uid="{27690EA7-41E8-4F13-A614-0514A42BB5F8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
